--- a/updatedteamdata3.xlsx
+++ b/updatedteamdata3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="3420" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="9100" yWindow="3100" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="R92" sqref="R92"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2727,7 +2727,7 @@
         <v>100.9</v>
       </c>
       <c r="R36" s="9">
-        <v>1039</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
